--- a/templates/output/template2.xlsx
+++ b/templates/output/template2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -90,24 +90,6 @@
     <t>Crossing Remark</t>
   </si>
   <si>
-    <t>Single Suspension (12x120KN)</t>
-  </si>
-  <si>
-    <t>Double Suspension (24x120KN)</t>
-  </si>
-  <si>
-    <t>Single Tension (12x120KN)</t>
-  </si>
-  <si>
-    <t>Double Tension (24x210KN)</t>
-  </si>
-  <si>
-    <t>Double S. Inverted (24x210KN)</t>
-  </si>
-  <si>
-    <t>Jumper Insulator (12xU120BL)</t>
-  </si>
-  <si>
     <t>TENSION TOWER</t>
   </si>
   <si>
@@ -156,33 +138,15 @@
     <t>MASYARAKAT</t>
   </si>
   <si>
-    <t>MANDIRANCAN S/S</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>DDR6</t>
   </si>
   <si>
-    <t>CIKIJING S/S</t>
-  </si>
-  <si>
     <t>JUMLAH TOTAL</t>
   </si>
   <si>
-    <t>MATERIAL KONTRAK Tahap 1</t>
-  </si>
-  <si>
-    <t>MATERIAL PDP</t>
-  </si>
-  <si>
-    <t>KEBUTUHAN</t>
-  </si>
-  <si>
-    <t>KEKURANGAN</t>
-  </si>
-  <si>
     <t>PT. PLN (PERSERO)</t>
   </si>
   <si>
@@ -223,6 +187,27 @@
   </si>
   <si>
     <t>DATE :</t>
+  </si>
+  <si>
+    <t>GANTRY</t>
+  </si>
+  <si>
+    <t>Single Suspension</t>
+  </si>
+  <si>
+    <t>Double Suspension</t>
+  </si>
+  <si>
+    <t>Single Tension</t>
+  </si>
+  <si>
+    <t>Double Tension</t>
+  </si>
+  <si>
+    <t>Double S. Inverted</t>
+  </si>
+  <si>
+    <t>Jumper Insulator</t>
   </si>
 </sst>
 </file>
@@ -319,7 +304,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,38 +329,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="67">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -776,147 +731,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1162,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -1207,33 +1021,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1241,8 +1031,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,26 +1052,128 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,115 +1183,67 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,155 +1262,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,7 +1693,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:R5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,692 +1702,692 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79"/>
+      <c r="B1" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="92"/>
     </row>
     <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="129" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="26"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="130"/>
-      <c r="U5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="44"/>
+      <c r="U5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="42"/>
+        <v>24</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" s="137"/>
-      <c r="Z7" s="138"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="93"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="44"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="36"/>
     </row>
     <row r="9" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="109" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="109" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="80" t="s">
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="82"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="96"/>
     </row>
-    <row r="10" spans="1:27" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="118" t="s">
+    <row r="10" spans="1:27" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="115" t="s">
+      <c r="G10" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="70" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="P10" s="47"/>
+      <c r="Q10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="R10" s="47"/>
+      <c r="S10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="132" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="133"/>
-      <c r="S10" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="95"/>
+      <c r="Z10" s="106"/>
     </row>
     <row r="11" spans="1:27" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="119"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="39" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+      <c r="B12" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="139"/>
+        <v>25</v>
+      </c>
+      <c r="G12" s="39"/>
       <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="113">
+        <v>25</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="87">
         <f>3*A8</f>
         <v>6</v>
       </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="142"/>
+      <c r="Z12" s="41"/>
     </row>
     <row r="13" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="54">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="121">
         <v>60</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="72">
         <f>F13</f>
         <v>60</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="56">
+      <c r="H13" s="121"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="104">
         <f>IF($A$9=2,ROUND(F13/50,0)*$A$8*3,"")</f>
         <v>6</v>
       </c>
-      <c r="Z13" s="58"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="102">
+      <c r="B14" s="78">
         <v>1</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="79">
         <v>1</v>
       </c>
-      <c r="D14" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="104">
+      <c r="D14" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="80">
         <v>6</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="50" t="str">
+      <c r="F14" s="122"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="76" t="str">
         <f>IF(LEFT(D14,1)="a",IF(AND(COUNTIF(doublecross,H15)=0,COUNTIF(doublecross,H13)=0),3*$A$8,""),"")</f>
         <v/>
       </c>
-      <c r="J14" s="50" t="str">
+      <c r="J14" s="76" t="str">
         <f>IF(AND(LEFT(D14,1)="a",OR(COUNTIF(doublecross,H15)&gt;0,COUNTIF(doublecross,H13)&gt;0)),3*$A$8,"")</f>
         <v/>
       </c>
-      <c r="K14" s="50" t="str">
+      <c r="K14" s="76" t="str">
         <f>IF(AND(LEFT(D14,1)&lt;&gt;"a",LEFT(D14,3)&lt;&gt;"ddr",COUNTIF(doublecross,H15)=0,COUNTIF(doublecross,H13)=0),6*$A$8,"")</f>
         <v/>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="76">
         <f>IF(LEFT(D14,1)&lt;&gt;"a",(IF(LEFT(D14,3)="ddr",3*$A$8,IF(OR(COUNTIF(doublecross,F13)&gt;0,countinf(doublecross,F15)&gt;0),6*$A$8,""))),"")</f>
         <v>6</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50">
+      <c r="M14" s="76"/>
+      <c r="N14" s="76">
         <f>IF(LEFT(D14,2)="cc",3,IF(OR(LEFT(D14,2)="ee",LEFT(D14,2)="dd"),6,""))</f>
         <v>6</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="104">
         <f>IF(LEFT(D14,1)&lt;&gt;"a", 2,"")</f>
         <v>2</v>
       </c>
-      <c r="P14" s="56">
+      <c r="P14" s="104">
         <f>IF(LEFT(D14,1)&lt;&gt;"a", 2,"")</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="56" t="str">
+      <c r="Q14" s="104" t="str">
         <f>IF(LEFT(D14,1)="a", 1,"")</f>
         <v/>
       </c>
-      <c r="R14" s="56" t="str">
+      <c r="R14" s="104" t="str">
         <f>IF(LEFT(D14,1)="a", 1,"")</f>
         <v/>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="107">
         <f>IF(OR(F13&gt;450,F15&gt;450),9*$A$8*$A$9,6*$A$8*$A$9)</f>
         <v>24</v>
       </c>
-      <c r="T14" s="62">
+      <c r="T14" s="107">
         <f>IF(OR(F13&gt;450,F15&gt;450),3,2)</f>
         <v>2</v>
       </c>
-      <c r="U14" s="62">
+      <c r="U14" s="107">
         <f>IF(OR(F13&gt;450,F15&gt;450),3,2)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="62" t="str">
+      <c r="V14" s="107" t="str">
         <f>IF(LEFT(D14,1)="a", 3*$A$8*$A$9,"")</f>
         <v/>
       </c>
-      <c r="W14" s="62" t="str">
+      <c r="W14" s="107" t="str">
         <f>IF(LEFT(D14,1)="a", 1,"")</f>
         <v/>
       </c>
-      <c r="X14" s="62" t="str">
+      <c r="X14" s="107" t="str">
         <f>IF(LEFT(D14,1)="a", 1,"")</f>
         <v/>
       </c>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58">
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="42">
         <f>IF(LEFT(D14,1)&lt;&gt;"a", $A$8*3*2,"")</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="52">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="116">
         <v>273.43</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="72">
         <f>F13+F15</f>
         <v>333.43</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="56">
+      <c r="H15" s="116"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="104">
         <f>IF($A$9=2,ROUND(F15/50,0)*$A$8*3,"")</f>
         <v>30</v>
       </c>
-      <c r="Z15" s="58"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="113">
+      <c r="B16" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="87">
         <f>3*A8</f>
         <v>6</v>
       </c>
-      <c r="N16" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
+      <c r="N16" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="140"/>
+        <v>25</v>
+      </c>
+      <c r="G17" s="40"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="143"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" spans="2:26" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
+      <c r="B18" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="10">
         <f>SUM(F12:F17)</f>
         <v>333.43</v>
@@ -2706,307 +2475,120 @@
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+    <row r="20" spans="2:26" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>336</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16">
-        <f>444-79</f>
-        <v>365</v>
-      </c>
-      <c r="M20" s="16">
-        <v>12</v>
-      </c>
-      <c r="N20" s="16">
-        <v>57</v>
-      </c>
-      <c r="O20" s="16">
-        <v>76</v>
-      </c>
-      <c r="P20" s="16">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>56</v>
-      </c>
-      <c r="R20" s="16">
-        <v>56</v>
-      </c>
-      <c r="S20" s="16">
-        <v>1200</v>
-      </c>
-      <c r="T20" s="16">
-        <v>198</v>
-      </c>
-      <c r="U20" s="16">
-        <v>198</v>
-      </c>
-      <c r="V20" s="16">
-        <v>1200</v>
-      </c>
-      <c r="W20" s="16">
-        <v>198</v>
-      </c>
-      <c r="X20" s="16">
-        <v>198</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>3240</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>306</v>
-      </c>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
     </row>
-    <row r="21" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
-        <v>444</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19">
-        <f>+L20</f>
-        <v>365</v>
-      </c>
-      <c r="M21" s="19">
-        <v>12</v>
-      </c>
-      <c r="N21" s="19">
-        <v>66</v>
-      </c>
-      <c r="O21" s="19">
-        <v>112</v>
-      </c>
-      <c r="P21" s="19">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>74</v>
-      </c>
-      <c r="R21" s="19">
-        <v>74</v>
-      </c>
-      <c r="S21" s="19">
-        <v>1296</v>
-      </c>
-      <c r="T21" s="19">
-        <v>214</v>
-      </c>
-      <c r="U21" s="19">
-        <v>214</v>
-      </c>
-      <c r="V21" s="19">
-        <v>1296</v>
-      </c>
-      <c r="W21" s="19">
-        <v>214</v>
-      </c>
-      <c r="X21" s="19">
-        <v>214</v>
-      </c>
-      <c r="Y21" s="20">
-        <v>3240</v>
-      </c>
-      <c r="Z21" s="19">
-        <v>306</v>
-      </c>
+    <row r="21" spans="2:26" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
     </row>
-    <row r="22" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+    <row r="22" spans="2:26" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="21">
-        <f>+I18</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" ref="J22:X22" si="1">+J18</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M22" s="21">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="N22" s="21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O22" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P22" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="T22" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U22" s="21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="21">
-        <f>+Y18</f>
-        <v>36</v>
-      </c>
-      <c r="Z22" s="21">
-        <f>+Z18</f>
-        <v>12</v>
-      </c>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="126"/>
     </row>
-    <row r="23" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23">
-        <f>+I22-I20</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
-        <f>+J22-J21</f>
-        <v>-444</v>
-      </c>
-      <c r="K23" s="23">
-        <f t="shared" ref="K23:X23" si="2">+K22-K20</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
-        <f t="shared" si="2"/>
-        <v>-359</v>
-      </c>
-      <c r="M23" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="23">
-        <f t="shared" si="2"/>
-        <v>-51</v>
-      </c>
-      <c r="O23" s="23">
-        <f t="shared" si="2"/>
-        <v>-74</v>
-      </c>
-      <c r="P23" s="23">
-        <f t="shared" si="2"/>
-        <v>-74</v>
-      </c>
-      <c r="Q23" s="23">
-        <f>+Q22-Q21</f>
-        <v>-74</v>
-      </c>
-      <c r="R23" s="23">
-        <f>+R22-R21</f>
-        <v>-74</v>
-      </c>
-      <c r="S23" s="23">
-        <f t="shared" si="2"/>
-        <v>-1176</v>
-      </c>
-      <c r="T23" s="23">
-        <f t="shared" si="2"/>
-        <v>-196</v>
-      </c>
-      <c r="U23" s="23">
-        <f t="shared" si="2"/>
-        <v>-196</v>
-      </c>
-      <c r="V23" s="23">
-        <f t="shared" si="2"/>
-        <v>-1200</v>
-      </c>
-      <c r="W23" s="23">
-        <f t="shared" si="2"/>
-        <v>-198</v>
-      </c>
-      <c r="X23" s="23">
-        <f t="shared" si="2"/>
-        <v>-198</v>
-      </c>
-      <c r="Y23" s="24">
-        <f>+Y22-Y21</f>
-        <v>-3204</v>
-      </c>
-      <c r="Z23" s="24">
-        <f>+Z22-Z20</f>
-        <v>-294</v>
-      </c>
+    <row r="23" spans="2:26" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+    <row r="24" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="G24" s="128"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
@@ -3031,8 +2613,8 @@
       <c r="E27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
@@ -3044,35 +2626,40 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="F4:R5"/>
-    <mergeCell ref="F6:R8"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B2:C6"/>
     <mergeCell ref="L14:L15"/>
@@ -3089,62 +2676,57 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F2:R2"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="F4:R5"/>
+    <mergeCell ref="F6:R8"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="T14:T15"/>
     <mergeCell ref="U12:U13"/>
-    <mergeCell ref="J12:J13"/>
     <mergeCell ref="X14:X15"/>
-    <mergeCell ref="I12:I13"/>
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="V12:V13"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
